--- a/biology/Botanique/Sinofranchetia/Sinofranchetia.xlsx
+++ b/biology/Botanique/Sinofranchetia/Sinofranchetia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sinofranchetia est un genre monospécifique de plantes de la famille des Lardizabalacées, endémique de Chine.
 Nom chinois du genre : 串果藤属
@@ -512,7 +524,9 @@
           <t>Description[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes de ce genre sont des plantes grimpantes vivaces, robustes et vigoureuses, glabres, aux tiges ligneuses. Elles peuvent atteindre 9 m de haut.
 Les feuilles sont alternes, caduques, au pétiole très long (jusqu'à 20 cm). Elles comptent trois folioles : les folioles latérales sont assez semblables, plus petites que la foliole terminale mais dont la base est asymétrique.
@@ -551,14 +565,16 @@
           <t>Position taxonomique et historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 1894, Adrien René Franchet décrit une plante sous le nom de Parvatia chinensis à partir d'un exemplaire collecté en Chine dans le Sechuan par le révérend père Farges[2]. Cette description correspond aux caractéristiques du genre Parvatia fondée sur celles de la fleur : présence de pétales nectarifères et étamines aux filaments libres, malgré les autres différences sensibles.
-En 1900, Friedrich Ludwig Emil Diels replace l'espèce dans le genre Holboellia : Holboellia chinensis (Franch.) Diels. Il crée par la même occasion un sous-genre du genre Holboellia : Sinofranchetia[3]. Ce nom, en hommage à Adrien René Franchet, inclut le préfixe « sino » afin de le distinguer du genre Franchetia déjà donné à un genre de la famille des Rubiacées par Henri Ernest Baillon en 1885.
-En 1906, Gaston Réaubourg produit une nouvelle description de l'espèce[4].
-En 1907, William Botting Hemsley fait du sous-genre un genre à part entière et l'espèce devient : Sinofranchetia chinensis[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En 1894, Adrien René Franchet décrit une plante sous le nom de Parvatia chinensis à partir d'un exemplaire collecté en Chine dans le Sechuan par le révérend père Farges. Cette description correspond aux caractéristiques du genre Parvatia fondée sur celles de la fleur : présence de pétales nectarifères et étamines aux filaments libres, malgré les autres différences sensibles.
+En 1900, Friedrich Ludwig Emil Diels replace l'espèce dans le genre Holboellia : Holboellia chinensis (Franch.) Diels. Il crée par la même occasion un sous-genre du genre Holboellia : Sinofranchetia. Ce nom, en hommage à Adrien René Franchet, inclut le préfixe « sino » afin de le distinguer du genre Franchetia déjà donné à un genre de la famille des Rubiacées par Henri Ernest Baillon en 1885.
+En 1906, Gaston Réaubourg produit une nouvelle description de l'espèce.
+En 1907, William Botting Hemsley fait du sous-genre un genre à part entière et l'espèce devient : Sinofranchetia chinensis.
 Les récentes études philogénétiques le maintiennent toutes comme genre distinct (Wang Wei et al. et Wang Feng et al., en référence).
-En 2000, Alexander Borissovitch Dowels fait de ce genre le genre type de la famille des Sinofranchetiaceae[6].
+En 2000, Alexander Borissovitch Dowels fait de ce genre le genre type de la famille des Sinofranchetiaceae.
 Le genre ne comprend qu'une seule espèce(sources : différents index (l'index international des noms de plante, index du jardin botanique de Saint Louis du Missouri, the Plant List) et des documents cités en référence) :
 Sinofranchetia chinensis (Franch.) Hemsl.
 Cette espèce compte elle-même trois synonymes :
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est endémique de Chine et en est originaire des zones centrales  : Gansu, Nord Guandong, Hubei, Ouest Hunan, Sud Shaanxii, Sichuan, Nord-Est Yunnan.
 Son usage ornemental en lianes décoratives l'a répandu à l'ensemble des zones tempérées.
@@ -624,9 +642,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits de cette espèce sont comestibles (pulpe)[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits de cette espèce sont comestibles (pulpe).
 La principale utilisation actuelle est ornementale. Quelques horticulteurs commencent à commercialiser cette liane en France.
 			Plante
 			Fruits
